--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -448,10 +460,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="J11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -495,28 +507,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="2">
+      <c r="A13" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="2">
+      <c r="C13" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -541,28 +553,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="2">
+      <c r="B15" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="C15" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="2">
+      <c r="D15" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="2">
+      <c r="G15" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="2">
+      <c r="H15" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="2">
+      <c r="I15" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1026,10 +1038,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1073,28 +1085,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1119,28 +1131,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1835,10 +1847,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1882,28 +1894,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1928,28 +1940,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2095,10 +2107,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2142,28 +2154,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2188,28 +2200,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2413,10 +2425,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2460,28 +2472,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2506,28 +2518,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2731,10 +2743,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2778,28 +2790,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2824,28 +2836,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3107,10 +3119,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3154,28 +3166,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3200,28 +3212,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3425,10 +3437,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3472,28 +3484,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3518,28 +3530,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3627,10 +3639,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3674,28 +3686,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3720,28 +3732,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3916,10 +3928,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3963,28 +3975,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4009,28 +4021,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4118,10 +4130,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4165,28 +4177,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4211,28 +4223,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4291,10 +4303,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4338,28 +4350,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4384,28 +4396,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4464,10 +4476,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="2" t="s">
+      <c r="J150" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4511,28 +4523,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="2">
+      <c r="A152" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="B152" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="2">
+      <c r="C152" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="2">
+      <c r="E152" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="2">
+      <c r="F152" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="2">
+      <c r="G152" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="2">
+      <c r="H152" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4557,28 +4569,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="2">
+      <c r="I154" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4637,10 +4649,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="2" t="s">
+      <c r="J156" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4684,28 +4696,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="2">
+      <c r="C158" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4730,28 +4742,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4810,10 +4822,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4857,28 +4869,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4903,28 +4915,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4983,10 +4995,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="2" t="s">
+      <c r="J168" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5030,28 +5042,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="2">
+      <c r="A170" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="2">
+      <c r="C170" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5076,28 +5088,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="2">
+      <c r="C172" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="2">
+      <c r="D172" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="2">
+      <c r="I172" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5156,10 +5168,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="2" t="s">
+      <c r="J174" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5203,28 +5215,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="2">
+      <c r="A176" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="2">
+      <c r="C176" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5249,28 +5261,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="2">
+      <c r="C178" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="2">
+      <c r="D178" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="2">
+      <c r="I178" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5387,10 +5399,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5434,28 +5446,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5480,28 +5492,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5589,10 +5601,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5636,28 +5648,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5682,28 +5694,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5791,10 +5803,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5838,28 +5850,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5884,28 +5896,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6022,10 +6034,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6069,28 +6081,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6115,28 +6127,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6195,10 +6207,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6242,28 +6254,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6288,28 +6300,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6397,10 +6409,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6444,28 +6456,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6490,28 +6502,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6599,10 +6611,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6646,28 +6658,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6692,28 +6704,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6859,10 +6871,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6906,28 +6918,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6952,28 +6964,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7090,10 +7102,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7137,28 +7149,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7183,28 +7195,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7263,10 +7275,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7310,28 +7322,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7356,28 +7368,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7436,10 +7448,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="2" t="s">
+      <c r="J253" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7483,28 +7495,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="2">
+      <c r="A255" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="2">
+      <c r="C255" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7529,28 +7541,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="2">
+      <c r="C257" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="2">
+      <c r="D257" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="2">
+      <c r="I257" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -460,10 +508,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="J11" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -507,28 +555,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="4">
+      <c r="A13" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="4">
+      <c r="C13" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -553,28 +601,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="4">
+      <c r="B15" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="4">
+      <c r="D15" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="4">
+      <c r="F15" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="4">
+      <c r="G15" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="4">
+      <c r="H15" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="4">
+      <c r="I15" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -720,10 +768,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="4" t="s">
+      <c r="J20" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -767,28 +815,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="4">
+      <c r="A22" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="4">
+      <c r="C22" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="4">
+      <c r="E22" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="4">
+      <c r="F22" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="4">
+      <c r="G22" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="4">
+      <c r="H22" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -813,28 +861,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="4">
+      <c r="B24" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="4">
+      <c r="D24" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="4">
+      <c r="E24" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="4">
+      <c r="F24" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="4">
+      <c r="G24" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="4">
+      <c r="H24" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="4">
+      <c r="I24" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1038,10 +1086,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="J31" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1085,28 +1133,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="4">
+      <c r="A33" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="4">
+      <c r="C33" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1131,28 +1179,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="4">
+      <c r="I35" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1298,10 +1346,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="4" t="s">
+      <c r="J40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1345,28 +1393,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="4">
+      <c r="A42" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="4">
+      <c r="B42" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="4">
+      <c r="C42" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="4">
+      <c r="E42" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="4">
+      <c r="F42" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="4">
+      <c r="G42" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="4">
+      <c r="H42" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1391,28 +1439,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="4">
+      <c r="B44" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="4">
+      <c r="C44" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="4">
+      <c r="D44" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="4">
+      <c r="E44" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="4">
+      <c r="F44" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="4">
+      <c r="G44" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="4">
+      <c r="H44" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="4">
+      <c r="I44" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1500,10 +1548,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="J47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1547,28 +1595,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="4">
+      <c r="A49" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="4">
+      <c r="C49" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1593,28 +1641,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="D51" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="4">
+      <c r="G51" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="4">
+      <c r="H51" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="4">
+      <c r="I51" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1847,10 +1895,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="4" t="s">
+      <c r="J59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1894,28 +1942,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="4">
+      <c r="C61" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1940,28 +1988,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2107,10 +2155,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="4" t="s">
+      <c r="J68" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2154,28 +2202,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="4">
+      <c r="A70" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="4">
+      <c r="B70" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="4">
+      <c r="C70" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="4">
+      <c r="E70" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="4">
+      <c r="F70" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="4">
+      <c r="G70" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="4">
+      <c r="H70" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2200,28 +2248,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="4">
+      <c r="B72" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="4">
+      <c r="C72" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="4">
+      <c r="D72" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="4">
+      <c r="E72" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="4">
+      <c r="F72" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="4">
+      <c r="G72" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="4">
+      <c r="H72" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="4">
+      <c r="I72" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2425,10 +2473,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="4" t="s">
+      <c r="J79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2472,28 +2520,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="A81" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="4">
+      <c r="C81" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2518,28 +2566,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="4">
+      <c r="I83" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2743,10 +2791,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="4" t="s">
+      <c r="J90" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2790,28 +2838,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="4">
+      <c r="A92" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="4">
+      <c r="B92" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="4">
+      <c r="C92" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="4">
+      <c r="E92" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="4">
+      <c r="F92" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="4">
+      <c r="G92" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="4">
+      <c r="H92" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2836,28 +2884,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="4">
+      <c r="B94" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="4">
+      <c r="C94" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="4">
+      <c r="D94" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="4">
+      <c r="E94" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="4">
+      <c r="F94" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="4">
+      <c r="G94" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="4">
+      <c r="H94" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="4">
+      <c r="I94" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3119,10 +3167,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="4" t="s">
+      <c r="J103" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3166,28 +3214,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="4">
+      <c r="A105" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="4">
+      <c r="B105" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="4">
+      <c r="C105" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="4">
+      <c r="E105" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="4">
+      <c r="F105" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="4">
+      <c r="G105" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="4">
+      <c r="H105" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3212,28 +3260,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="4">
+      <c r="B107" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="4">
+      <c r="C107" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="4">
+      <c r="D107" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="4">
+      <c r="E107" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="4">
+      <c r="F107" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="4">
+      <c r="G107" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="4">
+      <c r="H107" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="4">
+      <c r="I107" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3437,10 +3485,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="4" t="s">
+      <c r="J114" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3484,28 +3532,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="4">
+      <c r="A116" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="4">
+      <c r="C116" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3530,28 +3578,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="4">
+      <c r="B118" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="4">
+      <c r="C118" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="4">
+      <c r="D118" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="4">
+      <c r="E118" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="4">
+      <c r="F118" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="4">
+      <c r="G118" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="4">
+      <c r="H118" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="4">
+      <c r="I118" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3639,10 +3687,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="4" t="s">
+      <c r="J121" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3686,28 +3734,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="4">
+      <c r="A123" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="4">
+      <c r="B123" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="4">
+      <c r="C123" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="4">
+      <c r="E123" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="4">
+      <c r="F123" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="4">
+      <c r="G123" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="4">
+      <c r="H123" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3732,28 +3780,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="4">
+      <c r="B125" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="4">
+      <c r="C125" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="4">
+      <c r="D125" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="4">
+      <c r="E125" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="4">
+      <c r="F125" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="4">
+      <c r="G125" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="4">
+      <c r="H125" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="4">
+      <c r="I125" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3928,10 +3976,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="4" t="s">
+      <c r="J131" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3975,28 +4023,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="4">
+      <c r="A133" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="4">
+      <c r="C133" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4021,28 +4069,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="4">
+      <c r="I135" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4130,10 +4178,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="4" t="s">
+      <c r="J138" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4177,28 +4225,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="4">
+      <c r="A140" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="4">
+      <c r="B140" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="4">
+      <c r="C140" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="4">
+      <c r="E140" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="4">
+      <c r="F140" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="4">
+      <c r="G140" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="4">
+      <c r="H140" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4223,28 +4271,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="4">
+      <c r="C142" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="4">
+      <c r="D142" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="4">
+      <c r="I142" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4303,10 +4351,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4350,28 +4398,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4396,28 +4444,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4476,10 +4524,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="4" t="s">
+      <c r="J150" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4523,28 +4571,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="4">
+      <c r="A152" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="4">
+      <c r="B152" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="4">
+      <c r="C152" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="4">
+      <c r="E152" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="4">
+      <c r="F152" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="4">
+      <c r="G152" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="4">
+      <c r="H152" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4569,28 +4617,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="4">
+      <c r="B154" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="4">
+      <c r="C154" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="4">
+      <c r="D154" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="4">
+      <c r="E154" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="4">
+      <c r="F154" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="4">
+      <c r="G154" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="4">
+      <c r="H154" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="4">
+      <c r="I154" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4649,10 +4697,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="4" t="s">
+      <c r="J156" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4696,28 +4744,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="4">
+      <c r="C158" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4742,28 +4790,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4822,10 +4870,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="4" t="s">
+      <c r="J162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4869,28 +4917,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="4">
+      <c r="A164" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="4">
+      <c r="B164" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="4">
+      <c r="C164" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="4">
+      <c r="E164" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="4">
+      <c r="F164" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="4">
+      <c r="G164" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="4">
+      <c r="H164" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4915,28 +4963,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="4">
+      <c r="C166" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="4">
+      <c r="D166" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="4">
+      <c r="I166" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4995,10 +5043,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="4" t="s">
+      <c r="J168" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5042,28 +5090,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="4">
+      <c r="A170" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="4">
+      <c r="B170" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="4">
+      <c r="C170" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="4">
+      <c r="E170" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="4">
+      <c r="F170" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="4">
+      <c r="G170" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="4">
+      <c r="H170" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5088,28 +5136,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="4">
+      <c r="C172" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="4">
+      <c r="D172" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="4">
+      <c r="I172" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5168,10 +5216,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="4" t="s">
+      <c r="J174" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5215,28 +5263,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="4">
+      <c r="A176" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="4">
+      <c r="B176" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="4">
+      <c r="C176" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="4">
+      <c r="E176" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="4">
+      <c r="F176" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="4">
+      <c r="G176" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="4">
+      <c r="H176" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5261,28 +5309,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="4">
+      <c r="C178" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="4">
+      <c r="D178" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="4">
+      <c r="I178" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5399,10 +5447,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5446,28 +5494,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5492,28 +5540,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5601,10 +5649,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="4" t="s">
+      <c r="J189" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5648,28 +5696,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="4">
+      <c r="A191" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="4">
+      <c r="C191" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5694,28 +5742,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="4">
+      <c r="B193" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="4">
+      <c r="C193" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="4">
+      <c r="D193" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="4">
+      <c r="E193" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="4">
+      <c r="F193" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="4">
+      <c r="G193" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="4">
+      <c r="H193" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="4">
+      <c r="I193" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5803,10 +5851,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="4" t="s">
+      <c r="J196" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5850,28 +5898,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="4">
+      <c r="A198" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="4">
+      <c r="B198" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="4">
+      <c r="C198" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="4">
+      <c r="E198" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="4">
+      <c r="F198" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="4">
+      <c r="G198" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="4">
+      <c r="H198" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5896,28 +5944,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="4">
+      <c r="B200" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="4">
+      <c r="C200" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="4">
+      <c r="D200" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="4">
+      <c r="E200" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="4">
+      <c r="F200" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="4">
+      <c r="G200" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="4">
+      <c r="H200" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="4">
+      <c r="I200" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6034,10 +6082,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="4" t="s">
+      <c r="J204" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6081,28 +6129,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="4">
+      <c r="C206" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6127,28 +6175,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="4">
+      <c r="C208" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="4">
+      <c r="D208" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="4">
+      <c r="G208" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="4">
+      <c r="H208" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="4">
+      <c r="I208" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6207,10 +6255,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6254,28 +6302,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6300,28 +6348,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6409,10 +6457,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6456,28 +6504,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6502,28 +6550,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6611,10 +6659,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="4" t="s">
+      <c r="J224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6658,28 +6706,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="4">
+      <c r="A226" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="4">
+      <c r="C226" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6704,28 +6752,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="4">
+      <c r="C228" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="4">
+      <c r="D228" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="4">
+      <c r="I228" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6871,10 +6919,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="4" t="s">
+      <c r="J233" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6918,28 +6966,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="4">
+      <c r="A235" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="4">
+      <c r="C235" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6964,28 +7012,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="4">
+      <c r="B237" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="4">
+      <c r="C237" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="4">
+      <c r="D237" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="4">
+      <c r="E237" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="4">
+      <c r="F237" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="4">
+      <c r="G237" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="4">
+      <c r="H237" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="4">
+      <c r="I237" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7102,10 +7150,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="4" t="s">
+      <c r="J241" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7149,28 +7197,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="4">
+      <c r="A243" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="4">
+      <c r="B243" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="4">
+      <c r="C243" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="4">
+      <c r="E243" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="4">
+      <c r="F243" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="4">
+      <c r="G243" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="4">
+      <c r="H243" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7195,28 +7243,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="4">
+      <c r="C245" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="4">
+      <c r="D245" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="4">
+      <c r="I245" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7275,10 +7323,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="4" t="s">
+      <c r="J247" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7322,28 +7370,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="4">
+      <c r="A249" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="4">
+      <c r="B249" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="4">
+      <c r="C249" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="4">
+      <c r="E249" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="4">
+      <c r="F249" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="4">
+      <c r="G249" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="4">
+      <c r="H249" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7368,28 +7416,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="4">
+      <c r="C251" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="4">
+      <c r="D251" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="4">
+      <c r="I251" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7448,10 +7496,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="4" t="s">
+      <c r="J253" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7495,28 +7543,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="4">
+      <c r="A255" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="4">
+      <c r="B255" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="4">
+      <c r="C255" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="4">
+      <c r="E255" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="4">
+      <c r="F255" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="4">
+      <c r="G255" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="4">
+      <c r="H255" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7541,28 +7589,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="4">
+      <c r="C257" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="4">
+      <c r="D257" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="4">
+      <c r="I257" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7679,10 +7727,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="4" t="s">
+      <c r="J261" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8880" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -508,10 +526,10 @@
       <c r="I11">
         <f>((C11-C10)^2+(D11- D10)^2)^.5</f>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="J11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L11" t="n">
@@ -555,28 +573,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="12">
+      <c r="A13" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C13" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s" s="12">
+      <c r="C13" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -601,28 +619,28 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="s" s="12">
+      <c r="B15" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D15" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="12">
+      <c r="F15" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H15" t="s" s="12">
+      <c r="H15" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I15" t="s" s="12">
+      <c r="I15" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -768,10 +786,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="12" t="s">
+      <c r="J20" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -815,28 +833,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="12">
+      <c r="A22" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="12">
+      <c r="B22" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="12">
+      <c r="C22" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="12">
+      <c r="F22" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="12">
+      <c r="G22" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="12">
+      <c r="H22" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -861,28 +879,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="12">
+      <c r="B24" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="12">
+      <c r="C24" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="12">
+      <c r="D24" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F24" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G24" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="12">
+      <c r="H24" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="12">
+      <c r="I24" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1086,10 +1104,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="12" t="s">
+      <c r="J31" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1133,28 +1151,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="12">
+      <c r="C33" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1179,28 +1197,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1346,10 +1364,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="12" t="s">
+      <c r="J40" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1393,28 +1411,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="12">
+      <c r="A42" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="12">
+      <c r="B42" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="12">
+      <c r="C42" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="12">
+      <c r="E42" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="12">
+      <c r="F42" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="12">
+      <c r="G42" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="12">
+      <c r="H42" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1439,28 +1457,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="12">
+      <c r="B44" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="12">
+      <c r="C44" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="12">
+      <c r="D44" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="12">
+      <c r="E44" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="12">
+      <c r="F44" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="12">
+      <c r="G44" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="12">
+      <c r="H44" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="12">
+      <c r="I44" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1548,10 +1566,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="12" t="s">
+      <c r="J47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1595,28 +1613,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="12">
+      <c r="A49" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="12">
+      <c r="C49" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1641,28 +1659,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="12">
+      <c r="C51" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="12">
+      <c r="D51" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E51" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F51" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="12">
+      <c r="I51" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1895,10 +1913,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1942,28 +1960,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="12">
+      <c r="C61" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1988,28 +2006,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2155,10 +2173,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="12" t="s">
+      <c r="J68" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2202,28 +2220,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="12">
+      <c r="A70" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="12">
+      <c r="B70" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="12">
+      <c r="C70" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="12">
+      <c r="E70" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="12">
+      <c r="F70" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="12">
+      <c r="G70" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="12">
+      <c r="H70" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2248,28 +2266,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="12">
+      <c r="B72" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="12">
+      <c r="C72" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="12">
+      <c r="D72" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="12">
+      <c r="E72" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="12">
+      <c r="F72" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="12">
+      <c r="G72" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="12">
+      <c r="H72" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="12">
+      <c r="I72" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2473,10 +2491,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="12" t="s">
+      <c r="J79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2520,28 +2538,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="12">
+      <c r="A81" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="12">
+      <c r="C81" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2566,28 +2584,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="12">
+      <c r="C83" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="12">
+      <c r="D83" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="12">
+      <c r="I83" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2791,10 +2809,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="12" t="s">
+      <c r="J90" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2838,28 +2856,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="12">
+      <c r="A92" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="12">
+      <c r="B92" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="12">
+      <c r="C92" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="12">
+      <c r="E92" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="12">
+      <c r="F92" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="12">
+      <c r="G92" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="12">
+      <c r="H92" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2884,28 +2902,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="12">
+      <c r="B94" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="12">
+      <c r="C94" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="12">
+      <c r="D94" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="12">
+      <c r="E94" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="12">
+      <c r="F94" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="12">
+      <c r="G94" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="12">
+      <c r="H94" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="12">
+      <c r="I94" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3167,10 +3185,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="12" t="s">
+      <c r="J103" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3214,28 +3232,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="12">
+      <c r="A105" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="12">
+      <c r="B105" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="12">
+      <c r="C105" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="12">
+      <c r="E105" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="12">
+      <c r="F105" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="12">
+      <c r="G105" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="12">
+      <c r="H105" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3260,28 +3278,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="12">
+      <c r="B107" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="12">
+      <c r="C107" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="12">
+      <c r="D107" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="12">
+      <c r="E107" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="12">
+      <c r="F107" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="12">
+      <c r="G107" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="12">
+      <c r="H107" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="12">
+      <c r="I107" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3485,10 +3503,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="12" t="s">
+      <c r="J114" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3532,28 +3550,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="12">
+      <c r="A116" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="12">
+      <c r="C116" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3578,28 +3596,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="12">
+      <c r="B118" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="12">
+      <c r="C118" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="12">
+      <c r="D118" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="12">
+      <c r="E118" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="12">
+      <c r="F118" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="12">
+      <c r="G118" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="12">
+      <c r="H118" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="12">
+      <c r="I118" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3687,10 +3705,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="12" t="s">
+      <c r="J121" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3734,28 +3752,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="12">
+      <c r="A123" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="12">
+      <c r="B123" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="12">
+      <c r="C123" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="12">
+      <c r="E123" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="12">
+      <c r="F123" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="12">
+      <c r="G123" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="12">
+      <c r="H123" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3780,28 +3798,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="12">
+      <c r="B125" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="12">
+      <c r="C125" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="12">
+      <c r="D125" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="12">
+      <c r="E125" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="12">
+      <c r="F125" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="12">
+      <c r="G125" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="12">
+      <c r="H125" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="12">
+      <c r="I125" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3976,10 +3994,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="12" t="s">
+      <c r="J131" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -4023,28 +4041,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="12">
+      <c r="A133" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="12">
+      <c r="C133" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4069,28 +4087,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="12">
+      <c r="I135" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4178,10 +4196,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="12" t="s">
+      <c r="J138" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4225,28 +4243,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="12">
+      <c r="A140" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="12">
+      <c r="B140" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="12">
+      <c r="C140" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="12">
+      <c r="E140" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="12">
+      <c r="F140" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="12">
+      <c r="G140" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="12">
+      <c r="H140" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4271,28 +4289,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="12">
+      <c r="C142" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="12">
+      <c r="D142" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="12">
+      <c r="I142" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4351,10 +4369,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4398,28 +4416,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4444,28 +4462,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4542,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K150" s="12" t="s">
+      <c r="J150" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4571,28 +4589,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="12">
+      <c r="A152" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="12">
+      <c r="B152" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D152" t="s" s="12">
+      <c r="C152" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D152" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="12">
+      <c r="E152" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="12">
+      <c r="F152" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="12">
+      <c r="G152" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="12">
+      <c r="H152" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4635,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="12">
+      <c r="B154" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="12">
+      <c r="C154" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="12">
+      <c r="D154" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="12">
+      <c r="E154" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="12">
+      <c r="F154" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="12">
+      <c r="G154" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="12">
+      <c r="H154" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="12">
+      <c r="I154" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4697,10 +4715,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="12" t="s">
+      <c r="J156" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4744,28 +4762,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="12">
+      <c r="C158" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4790,28 +4808,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4870,10 +4888,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="12" t="s">
+      <c r="J162" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4917,28 +4935,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="12">
+      <c r="A164" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="12">
+      <c r="B164" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="12">
+      <c r="C164" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="12">
+      <c r="E164" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="12">
+      <c r="F164" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="12">
+      <c r="G164" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="12">
+      <c r="H164" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4963,28 +4981,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="12">
+      <c r="C166" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="12">
+      <c r="D166" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="12">
+      <c r="I166" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5043,10 +5061,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="12" t="s">
+      <c r="J168" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5090,28 +5108,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="12">
+      <c r="A170" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="12">
+      <c r="B170" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="12">
+      <c r="C170" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="12">
+      <c r="E170" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="12">
+      <c r="F170" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="12">
+      <c r="G170" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="12">
+      <c r="H170" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5136,28 +5154,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="12">
+      <c r="C172" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="12">
+      <c r="D172" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="12">
+      <c r="I172" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5216,10 +5234,10 @@
       <c r="I174">
         <f>((C174-C173)^2+(D174- D173)^2)^.5</f>
       </c>
-      <c r="J174" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K174" s="12" t="s">
+      <c r="J174" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K174" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L174" t="n">
@@ -5263,28 +5281,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="12">
+      <c r="A176" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B176" t="s" s="12">
+      <c r="B176" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C176" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D176" t="s" s="12">
+      <c r="C176" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D176" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E176" t="s" s="12">
+      <c r="E176" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F176" t="s" s="12">
+      <c r="F176" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G176" t="s" s="12">
+      <c r="G176" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H176" t="s" s="12">
+      <c r="H176" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5309,28 +5327,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C178" t="s" s="12">
+      <c r="C178" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D178" t="s" s="12">
+      <c r="D178" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I178" t="s" s="12">
+      <c r="I178" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5447,10 +5465,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5494,28 +5512,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5540,28 +5558,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5649,10 +5667,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="12" t="s">
+      <c r="J189" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5696,28 +5714,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="12">
+      <c r="A191" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="12">
+      <c r="C191" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5742,28 +5760,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="12">
+      <c r="B193" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="12">
+      <c r="C193" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="12">
+      <c r="D193" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="12">
+      <c r="E193" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="12">
+      <c r="F193" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="12">
+      <c r="G193" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="12">
+      <c r="H193" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="12">
+      <c r="I193" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5851,10 +5869,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="12" t="s">
+      <c r="J196" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5898,28 +5916,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="12">
+      <c r="A198" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="12">
+      <c r="B198" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="12">
+      <c r="C198" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="12">
+      <c r="E198" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="12">
+      <c r="F198" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="12">
+      <c r="G198" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="12">
+      <c r="H198" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5944,28 +5962,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="12">
+      <c r="B200" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="12">
+      <c r="C200" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="12">
+      <c r="D200" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="12">
+      <c r="E200" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="12">
+      <c r="F200" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="12">
+      <c r="G200" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="12">
+      <c r="H200" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="12">
+      <c r="I200" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6100,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="12" t="s">
+      <c r="J204" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6129,28 +6147,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="12">
+      <c r="A206" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="12">
+      <c r="C206" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6193,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="12">
+      <c r="B208" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="12">
+      <c r="C208" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="12">
+      <c r="D208" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="12">
+      <c r="E208" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="12">
+      <c r="F208" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="12">
+      <c r="G208" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="12">
+      <c r="H208" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="12">
+      <c r="I208" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6255,10 +6273,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6302,28 +6320,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6348,28 +6366,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6457,10 +6475,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6504,28 +6522,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6550,28 +6568,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6659,10 +6677,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="12" t="s">
+      <c r="J224" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6706,28 +6724,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="12">
+      <c r="A226" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="12">
+      <c r="C226" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6752,28 +6770,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="12">
+      <c r="C228" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="12">
+      <c r="D228" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="12">
+      <c r="I228" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6919,10 +6937,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="12" t="s">
+      <c r="J233" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6966,28 +6984,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="12">
+      <c r="A235" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="12">
+      <c r="C235" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7012,28 +7030,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="12">
+      <c r="B237" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="12">
+      <c r="C237" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="12">
+      <c r="D237" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="12">
+      <c r="E237" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="12">
+      <c r="F237" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="12">
+      <c r="G237" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="12">
+      <c r="H237" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="12">
+      <c r="I237" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7150,10 +7168,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="12" t="s">
+      <c r="J241" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7197,28 +7215,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="12">
+      <c r="A243" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="12">
+      <c r="B243" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="12">
+      <c r="C243" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="12">
+      <c r="E243" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="12">
+      <c r="F243" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="12">
+      <c r="G243" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="12">
+      <c r="H243" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7243,28 +7261,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="12">
+      <c r="C245" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="12">
+      <c r="D245" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="12">
+      <c r="I245" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7323,10 +7341,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="12" t="s">
+      <c r="J247" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7370,28 +7388,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="12">
+      <c r="A249" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="12">
+      <c r="B249" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="12">
+      <c r="C249" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="12">
+      <c r="E249" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="12">
+      <c r="F249" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="12">
+      <c r="G249" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="12">
+      <c r="H249" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7416,28 +7434,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="12">
+      <c r="C251" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="12">
+      <c r="D251" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="12">
+      <c r="I251" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7496,10 +7514,10 @@
       <c r="I253">
         <f>((C253-C252)^2+(D253- D252)^2)^.5</f>
       </c>
-      <c r="J253" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K253" s="12" t="s">
+      <c r="J253" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K253" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L253" t="n">
@@ -7543,28 +7561,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="s" s="12">
+      <c r="A255" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B255" t="s" s="12">
+      <c r="B255" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C255" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D255" t="s" s="12">
+      <c r="C255" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D255" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E255" t="s" s="12">
+      <c r="E255" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F255" t="s" s="12">
+      <c r="F255" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G255" t="s" s="12">
+      <c r="G255" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H255" t="s" s="12">
+      <c r="H255" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7589,28 +7607,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C257" t="s" s="12">
+      <c r="C257" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D257" t="s" s="12">
+      <c r="D257" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I257" t="s" s="12">
+      <c r="I257" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7727,10 +7745,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="12" t="s">
+      <c r="J261" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
